--- a/PROGRAMMAZIONE/performances/Relazione Performances/2020 relazione performance tab e figure/t2.xlsx
+++ b/PROGRAMMAZIONE/performances/Relazione Performances/2020 relazione performance tab e figure/t2.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vito.tranquillo\Desktop\relazione performance tab e figure\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vito.tranquillo\Desktop\GitProjects\IZSLER-COGES\PROGRAMMAZIONE\performances\Relazione Performances\2020 relazione performance tab e figure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97CF3206-D5BB-4FC3-B6BB-A9D2B988090A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C77C10-6ECB-4965-B64F-F8C818D088A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="8964" xr2:uid="{BEF5DB6F-293E-4835-BC7F-140E893DBD5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio2" sheetId="2" r:id="rId1"/>
+    <sheet name="Foglio1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
   <si>
     <t>Bovini e bufalini</t>
   </si>
@@ -51,25 +52,22 @@
     <t xml:space="preserve">Equidi </t>
   </si>
   <si>
-    <t>Regione</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allevamenti  </t>
-  </si>
-  <si>
-    <t>Capi</t>
-  </si>
-  <si>
     <t>Specie</t>
   </si>
   <si>
     <t>Lombardia</t>
   </si>
   <si>
-    <t>Emilia Romagna</t>
-  </si>
-  <si>
     <t>*</t>
+  </si>
+  <si>
+    <t>N.Allevamenti</t>
+  </si>
+  <si>
+    <t>N.Capi</t>
+  </si>
+  <si>
+    <t>Emilia-Romagna</t>
   </si>
 </sst>
 </file>
@@ -129,11 +127,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -449,175 +450,253 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3F15F0F-E2B9-4AC3-A3A5-76A8BC0CA20D}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection sqref="A1:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.88671875" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.88671875" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="E1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>15446</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1543959</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>6448</v>
+      </c>
+      <c r="G3" s="2">
+        <v>572512</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>13130</v>
+      </c>
+      <c r="C4" s="2">
+        <v>209308</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>3342</v>
+      </c>
+      <c r="G4" s="2">
+        <v>71487</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2">
+        <v>8382</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4407955</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>3779</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1126379</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3427</v>
+      </c>
+      <c r="C6" s="2">
+        <v>21180545</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1170</v>
+      </c>
+      <c r="G6" s="2">
+        <v>41729415</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2">
+        <v>20605</v>
+      </c>
+      <c r="C7" s="2">
+        <v>61085</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2">
+        <v>10744</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD32FBCE-6B7F-43B4-A6DB-9DDDDCE0AF11}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2">
-        <v>15446</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1543959</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2">
+        <v>6448</v>
+      </c>
+      <c r="C3" s="2">
+        <v>572512</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2">
-        <v>13130</v>
-      </c>
-      <c r="D3" s="2">
-        <v>209308</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2">
+        <v>3342</v>
+      </c>
+      <c r="C4" s="2">
+        <v>71487</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2">
-        <v>8382</v>
-      </c>
-      <c r="D4" s="2">
-        <v>4407955</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2">
+        <v>3779</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1126379</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2">
-        <v>3427</v>
-      </c>
-      <c r="D5" s="2">
-        <v>21180545</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2">
+        <v>1170</v>
+      </c>
+      <c r="C6" s="2">
+        <v>41729415</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2">
-        <v>20605</v>
-      </c>
-      <c r="D6" s="2">
-        <v>61085</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>6448</v>
-      </c>
-      <c r="D7" s="2">
-        <v>572512</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2">
-        <v>3342</v>
-      </c>
-      <c r="D8" s="2">
-        <v>71487</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="2">
-        <v>3779</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1126379</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1170</v>
-      </c>
-      <c r="D10" s="2">
-        <v>41729415</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="2">
+      <c r="B7" s="2">
         <v>10744</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>11</v>
+      <c r="C7" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>